--- a/excel/华为.xlsx
+++ b/excel/华为.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MobileInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MobileInfo\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC84CB3-27A7-4489-B11B-7B2D5B0C0EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CB46D9-A42F-4E66-A212-A4F2FCD16059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="174">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -795,7 +795,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -803,11 +803,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal style="thin">
         <color auto="1"/>
       </diagonal>
@@ -816,11 +839,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -830,17 +850,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,10 +895,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1193,853 +1227,1256 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="30.77734375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="35.77734375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="200.77734375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="30.77734375" style="2" customWidth="1"/>
-    <col min="21" max="22" width="30.77734375" style="3" customWidth="1"/>
-    <col min="23" max="27" width="30.77734375" style="2" customWidth="1"/>
-    <col min="28" max="35" width="15.77734375" style="4" customWidth="1"/>
-    <col min="36" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="17" width="30.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="35.77734375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="200.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="30.77734375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="30.77734375" style="2" customWidth="1"/>
+    <col min="23" max="27" width="30.77734375" style="1" customWidth="1"/>
+    <col min="28" max="35" width="15.77734375" style="3" customWidth="1"/>
+    <col min="36" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="7">
         <v>0.73209999999999997</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="2" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="5">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7">
         <v>0.75039999999999996</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="2" t="s">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="8"/>
-      <c r="V3" s="3" t="s">
+      <c r="U3" s="9"/>
+      <c r="V3" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="1"/>
+      <c r="W3" s="6"/>
     </row>
     <row r="4" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="7">
         <v>0.78049999999999997</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="2" t="s">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="2" t="s">
+      <c r="P4" s="6"/>
+      <c r="Q4" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="8"/>
-      <c r="V4" s="3" t="s">
+      <c r="U4" s="9"/>
+      <c r="V4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="W4" s="1"/>
+      <c r="W4" s="6"/>
     </row>
     <row r="5" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="10">
         <v>0.73839999999999995</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="s">
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="U5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="V5" s="8" t="s">
+      <c r="V5" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="W5" s="1"/>
+      <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="2" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="1"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="10">
         <v>0.78390000000000004</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1" t="s">
+      <c r="O7" s="6"/>
+      <c r="P7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="U7" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="V7" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="W7" s="1"/>
+      <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="2" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="1"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="6"/>
     </row>
     <row r="9" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="6"/>
+      <c r="J9" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="7">
         <v>0.7752</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1" t="s">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="S9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="3" t="s">
+      <c r="T9" s="6"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="W9" s="1"/>
+      <c r="W9" s="6"/>
     </row>
     <row r="10" spans="1:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="6"/>
+      <c r="J10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="7">
         <v>0.73150000000000004</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="s">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="S10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="3" t="s">
+      <c r="T10" s="6"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="W10" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="7">
         <v>0.72519999999999996</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="2" t="s">
+      <c r="O11" s="6"/>
+      <c r="P11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="2" t="s">
+      <c r="R11" s="6"/>
+      <c r="S11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="U11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="V11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="W11" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="7">
         <v>0.73150000000000004</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1" t="s">
+      <c r="O12" s="6"/>
+      <c r="P12" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="S12" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="U12" s="8" t="s">
+      <c r="U12" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="V12" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="W12" s="2" t="s">
+      <c r="W12" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="7">
         <v>0.81950000000000001</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2" t="s">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="2" t="s">
+      <c r="R13" s="6"/>
+      <c r="S13" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="3" t="s">
+      <c r="T13" s="6"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="W13" s="2" t="s">
+      <c r="W13" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="4"/>
     </row>
     <row r="15" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="4"/>
     </row>
     <row r="16" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="4"/>
+    </row>
+    <row r="17" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="4"/>
+    </row>
+    <row r="20" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="4"/>
+    </row>
+    <row r="21" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="4"/>
+    </row>
+    <row r="22" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="4"/>
+    </row>
+    <row r="23" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="4"/>
+    </row>
+    <row r="24" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="4"/>
+    </row>
+    <row r="26" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="4"/>
+    </row>
+    <row r="27" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="4"/>
+    </row>
+    <row r="28" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="4"/>
+    </row>
+    <row r="29" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="4"/>
+    </row>
+    <row r="30" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="4"/>
+    </row>
+    <row r="31" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="4"/>
+    </row>
+    <row r="32" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="I2:I12"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="O5:O13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="U7:U10"/>
-    <mergeCell ref="W2:W9"/>
-    <mergeCell ref="T7:T10"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D4:D10"/>
@@ -2056,31 +2493,50 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="W2:W9"/>
+    <mergeCell ref="T7:T10"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="P9:P10"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="P3:P6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="U7:U10"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="I2:I12"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="O5:O13"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <webPublishItems count="1">
+    <webPublishItem id="15048" divId="华为_15048" sourceType="sheet" destinationFile="F:\MobileInfo\web\华为.htm" autoRepublish="1"/>
+  </webPublishItems>
 </worksheet>
 </file>
 
@@ -2205,12 +2661,869 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A0AECD-F963-43A7-951E-C247E512152A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="17" width="30.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="35.77734375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="200.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="30.77734375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="30.77734375" style="2" customWidth="1"/>
+    <col min="23" max="27" width="30.77734375" style="1" customWidth="1"/>
+    <col min="28" max="35" width="15.77734375" style="3" customWidth="1"/>
+    <col min="36" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="11"/>
+    </row>
+    <row r="3" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="11"/>
+    </row>
+    <row r="4" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="11"/>
+    </row>
+    <row r="5" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="11"/>
+    </row>
+    <row r="6" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="11"/>
+    </row>
+    <row r="7" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="11"/>
+    </row>
+    <row r="8" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="11"/>
+    </row>
+    <row r="9" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="11"/>
+    </row>
+    <row r="10" spans="1:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="4"/>
+    </row>
+    <row r="15" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="4"/>
+    </row>
+    <row r="16" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="4"/>
+    </row>
+    <row r="17" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="4"/>
+    </row>
+    <row r="20" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="4"/>
+    </row>
+    <row r="21" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="4"/>
+    </row>
+    <row r="22" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="4"/>
+    </row>
+    <row r="23" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="4"/>
+    </row>
+    <row r="24" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="4"/>
+    </row>
+    <row r="26" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="4"/>
+    </row>
+    <row r="27" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="4"/>
+    </row>
+    <row r="28" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="4"/>
+    </row>
+    <row r="29" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="4"/>
+    </row>
+    <row r="30" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="4"/>
+    </row>
+    <row r="31" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="4"/>
+    </row>
+    <row r="32" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="4"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/华为.xlsx
+++ b/excel/华为.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MobileInfo\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CB46D9-A42F-4E66-A212-A4F2FCD16059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0EFC92-E409-472C-850E-7ED8FBBE1900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,12 +100,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q15" authorId="0" shapeId="0" xr:uid="{3B5B6F3F-FCAA-442A-A43F-274FF49EB009}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>QingYi Studio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+两个后摄都是f/1.6</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="194">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -487,9 +513,6 @@
   </si>
   <si>
     <t>2.4GHz + 1.8GHz + 微智核i6</t>
-  </si>
-  <si>
-    <t>2.4GHz + 1.8GHz + 微智核i6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -667,10 +690,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.12 GHz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017年10月20日</t>
   </si>
   <si>
@@ -743,6 +762,91 @@
   </si>
   <si>
     <t>22.5w(5V/4.5A)</t>
+  </si>
+  <si>
+    <t>1GB/2GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64GB/128GB (UFS 2.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海思 Kirin 659</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3340mAh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPS LCD</t>
+  </si>
+  <si>
+    <t>2160×1080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕像素 (竖向×横向)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.12GHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4GB (LPDDR3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.36Ghz + 1.7GHz + i5协处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>409ppi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unknow</t>
+  </si>
+  <si>
+    <t>2017年10月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后摄f/2.2 前摄f/2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2G: GSM850/900/1800/1900 3G: HSDPA850/900/2100 4G: 1/3/5/7/8/28/38/40/41;1/3/7/8/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED 康宁玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802.11 a/b/g/n/ac</t>
+  </si>
+  <si>
+    <t>6英寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402ppi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256GB (UFS 2.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2G：GSM 850/900/1800/1900 3G：WCDMA B1/2/4/5/6/8/19 3G：TD-SCDMA B34/39 4G：TD-LTE B34/38/39/40/41 4G：FDD-LTE B1/2/3/4/5/6/7/8/9/12/17/18/19/20/26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -795,7 +899,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -835,11 +939,48 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,19 +997,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -879,6 +1011,39 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,13 +1392,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="30.77734375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="30.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="1" customWidth="1"/>
+    <col min="5" max="17" width="30.77734375" style="1" customWidth="1"/>
     <col min="18" max="18" width="35.77734375" style="1" customWidth="1"/>
     <col min="19" max="19" width="200.77734375" style="1" customWidth="1"/>
     <col min="20" max="20" width="30.77734375" style="1" customWidth="1"/>
@@ -1258,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
@@ -1267,7 +1435,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>7</v>
@@ -1279,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>2</v>
@@ -1309,7 +1477,7 @@
         <v>15</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1322,37 +1490,37 @@
       <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="12" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>0.73209999999999997</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>31</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -1361,7 +1529,7 @@
       <c r="P2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="7"/>
       <c r="R2" s="4" t="s">
         <v>38</v>
       </c>
@@ -1371,13 +1539,13 @@
       <c r="T2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="13" t="s">
         <v>41</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="W2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="W2" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1391,33 +1559,35 @@
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>159</v>
+      </c>
+      <c r="F3" s="12"/>
       <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="6">
         <v>0.75039999999999996</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="M3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="12"/>
       <c r="O3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>28</v>
@@ -1428,11 +1598,11 @@
       <c r="T3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="9"/>
+      <c r="U3" s="13"/>
       <c r="V3" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="W3" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="W3" s="12"/>
     </row>
     <row r="4" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1444,13 +1614,13 @@
       <c r="C4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>73</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1459,24 +1629,24 @@
       <c r="H4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>0.78049999999999997</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="4" t="s">
         <v>79</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="6"/>
+      <c r="P4" s="12"/>
       <c r="Q4" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>77</v>
@@ -1487,290 +1657,290 @@
       <c r="T4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="9"/>
+      <c r="U4" s="13"/>
       <c r="V4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="W4" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="W4" s="12"/>
     </row>
     <row r="5" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="11">
         <v>0.73839999999999995</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6" t="s">
+      <c r="O5" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="V5" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="W5" s="6"/>
+      <c r="V5" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="W5" s="12"/>
     </row>
     <row r="6" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="10"/>
+        <v>132</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="12"/>
     </row>
     <row r="7" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="R7" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0.78390000000000004</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="R7" s="6" t="s">
+      <c r="S7" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="S7" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="W7" s="6"/>
+      <c r="T7" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="W7" s="12"/>
     </row>
     <row r="8" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="10"/>
+        <v>135</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="12"/>
     </row>
     <row r="9" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="6"/>
+      <c r="C9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>0.7752</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>170</v>
+      <c r="L9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="9"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="13"/>
       <c r="V9" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="W9" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="W9" s="12"/>
     </row>
     <row r="10" spans="1:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="4" t="s">
         <v>101</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" s="7">
+        <v>105</v>
+      </c>
+      <c r="K10" s="6">
         <v>0.73150000000000004</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12" t="s">
         <v>38</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="9"/>
+        <v>108</v>
+      </c>
+      <c r="T10" s="12"/>
+      <c r="U10" s="13"/>
       <c r="V10" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1781,13 +1951,13 @@
         <v>92</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>73</v>
@@ -1795,31 +1965,31 @@
       <c r="G11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>0.72519999999999996</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>82</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="O11" s="6"/>
+      <c r="O11" s="12"/>
       <c r="P11" s="4" t="s">
         <v>94</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="R11" s="6"/>
+      <c r="R11" s="12"/>
       <c r="S11" s="4" t="s">
         <v>96</v>
       </c>
@@ -1846,59 +2016,59 @@
       <c r="C12" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="14" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>101</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" s="7">
+        <v>105</v>
+      </c>
+      <c r="K12" s="6">
         <v>0.73150000000000004</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M12" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="U12" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="V12" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="W12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1906,136 +2076,212 @@
         <v>47</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>137</v>
+        <v>161</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="K13" s="7">
+        <v>162</v>
+      </c>
+      <c r="K13" s="6">
         <v>0.81950000000000001</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>124</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+        <v>160</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
       <c r="Q13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="R13" s="12"/>
+      <c r="S13" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="T13" s="12"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="W13" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" s="18"/>
+      <c r="V14" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="4"/>
+      <c r="B15" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K15" s="20">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="R15" s="16"/>
+      <c r="S15" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="14" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="4"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="15"/>
     </row>
     <row r="17" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2470,13 +2716,62 @@
       <c r="W32" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
+  <mergeCells count="77">
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="V14:V16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="I2:I12"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="O5:O13"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="U7:U10"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="W2:W9"/>
+    <mergeCell ref="T7:T10"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D4:D10"/>
@@ -2493,42 +2788,12 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="W2:W9"/>
-    <mergeCell ref="T7:T10"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="U7:U10"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="I2:I12"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="O5:O13"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2703,7 +2968,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>7</v>
@@ -2715,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>2</v>
@@ -2745,231 +3010,231 @@
         <v>15</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="11"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="7"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
-      <c r="U2" s="12"/>
+      <c r="U2" s="9"/>
       <c r="V2" s="5"/>
-      <c r="W2" s="11"/>
+      <c r="W2" s="8"/>
     </row>
     <row r="3" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="11"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="11"/>
+      <c r="P3" s="8"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-      <c r="U3" s="12"/>
+      <c r="U3" s="9"/>
       <c r="V3" s="5"/>
-      <c r="W3" s="11"/>
+      <c r="W3" s="8"/>
     </row>
     <row r="4" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="11"/>
+      <c r="P4" s="8"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="U4" s="12"/>
+      <c r="U4" s="9"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="11"/>
+      <c r="W4" s="8"/>
     </row>
     <row r="5" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="13"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="11"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="8"/>
     </row>
     <row r="6" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="13"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="11"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="11"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="11"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="8"/>
     </row>
     <row r="9" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="12"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="9"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="11"/>
+      <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="12"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="9"/>
       <c r="V10" s="5"/>
       <c r="W10" s="4"/>
     </row>
@@ -2981,17 +3246,17 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="7"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="11"/>
+      <c r="O11" s="8"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="11"/>
+      <c r="R11" s="8"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
@@ -3002,24 +3267,24 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="7"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="11"/>
+      <c r="R12" s="8"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="12"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="9"/>
       <c r="V12" s="5"/>
       <c r="W12" s="4"/>
     </row>
@@ -3027,24 +3292,24 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="7"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="11"/>
+      <c r="R13" s="8"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="12"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="9"/>
       <c r="V13" s="5"/>
       <c r="W13" s="4"/>
     </row>
